--- a/02_Output/Manual_Count_Timeframe-10_Minute_Intervall/018_cam_data.xlsx
+++ b/02_Output/Manual_Count_Timeframe-10_Minute_Intervall/018_cam_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -873,40 +873,40 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45392.68055555555</v>
+        <v>45392.70138888889</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D11" t="n">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -914,40 +914,40 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45392.67361111111</v>
+        <v>45392.69444444445</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D12" t="n">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -955,22 +955,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45392.66666666666</v>
+        <v>45392.6875</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -996,34 +996,34 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45392.36805555555</v>
+        <v>45392.68055555555</v>
       </c>
       <c r="C14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1037,40 +1037,40 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45392.36111111111</v>
+        <v>45392.67361111111</v>
       </c>
       <c r="C15" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
@@ -1078,19 +1078,19 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45392.35416666666</v>
+        <v>45392.66666666666</v>
       </c>
       <c r="C16" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -1119,28 +1119,28 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45392.34722222222</v>
+        <v>45392.36805555555</v>
       </c>
       <c r="C17" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D17" t="n">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1160,19 +1160,19 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45392.34027777778</v>
+        <v>45392.36111111111</v>
       </c>
       <c r="C18" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -1201,39 +1201,162 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
+        <v>45392.35416666666</v>
+      </c>
+      <c r="C19" t="n">
+        <v>14</v>
+      </c>
+      <c r="D19" t="n">
+        <v>78</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>26</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>41</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>45392.34722222222</v>
+      </c>
+      <c r="C20" t="n">
+        <v>20</v>
+      </c>
+      <c r="D20" t="n">
+        <v>59</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>37</v>
+      </c>
+      <c r="G20" t="n">
+        <v>4</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>47</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>45392.34027777778</v>
+      </c>
+      <c r="C21" t="n">
+        <v>14</v>
+      </c>
+      <c r="D21" t="n">
+        <v>80</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>36</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>61</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>6</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2</v>
+      </c>
+      <c r="M21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="n">
         <v>45392.33333333334</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C22" t="n">
         <v>5</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D22" t="n">
         <v>73</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E22" t="n">
         <v>2</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F22" t="n">
         <v>35</v>
       </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>69</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>3</v>
       </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="n">
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
         <v>9</v>
       </c>
     </row>
